--- a/OnBoard/output/trust/bio/Bio_Trust_57.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_57.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q229"/>
+  <dimension ref="A1:Q238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F2">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +524,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F4">
@@ -571,14 +571,14 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L4">
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F5">
@@ -618,14 +618,14 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L5">
@@ -635,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F6">
@@ -665,14 +665,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L6">
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F7">
@@ -712,14 +712,14 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L7">
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F8">
@@ -759,14 +759,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L8">
@@ -776,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F9">
@@ -806,14 +806,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L9">
@@ -823,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F10">
@@ -853,14 +853,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L10">
@@ -870,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F11">
@@ -900,14 +900,14 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L11">
@@ -917,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F12">
@@ -947,14 +947,14 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I12">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L12">
@@ -964,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F13">
@@ -994,14 +994,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L13">
@@ -1011,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F14">
@@ -1041,14 +1041,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="I14">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L14">
@@ -1058,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F15">
@@ -1088,19 +1088,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I15">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L15">
@@ -1110,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1130,7 +1125,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F16">
@@ -1140,19 +1135,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I16">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L16">
@@ -1162,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1182,7 +1172,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F17">
@@ -1192,19 +1182,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I17">
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L17">
@@ -1214,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1234,7 +1219,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F18">
@@ -1244,19 +1229,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="I18">
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L18">
@@ -1266,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1286,7 +1266,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F19">
@@ -1296,19 +1276,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="I19">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L19">
@@ -1318,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1338,7 +1313,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F20">
@@ -1348,19 +1323,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I20">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L20">
@@ -1370,7 +1340,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1390,7 +1360,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F21">
@@ -1400,19 +1370,14 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I21">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L21">
@@ -1422,7 +1387,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1442,7 +1407,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F22">
@@ -1452,19 +1417,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I22">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L22">
@@ -1474,7 +1434,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1494,7 +1454,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F23">
@@ -1504,19 +1464,14 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L23">
@@ -1526,7 +1481,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1546,7 +1501,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F24">
@@ -1556,19 +1511,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L24">
@@ -1578,7 +1528,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1598,7 +1548,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F25">
@@ -1608,19 +1558,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I25">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L25">
@@ -1630,7 +1575,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1650,7 +1595,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F26">
@@ -1660,19 +1605,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I26">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L26">
@@ -1682,7 +1622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1702,7 +1642,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F27">
@@ -1712,19 +1652,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I27">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L27">
@@ -1734,7 +1669,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1754,7 +1689,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F28">
@@ -1764,19 +1699,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I28">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L28">
@@ -1786,7 +1716,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1806,7 +1736,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F29">
@@ -1816,19 +1746,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="I29">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L29">
@@ -1838,7 +1763,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1858,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F30">
@@ -1868,19 +1793,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="I30">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L30">
@@ -1890,7 +1810,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1910,7 +1830,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F31">
@@ -1920,19 +1840,14 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L31">
@@ -1942,7 +1857,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1962,7 +1877,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F32">
@@ -1972,19 +1887,14 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L32">
@@ -1994,7 +1904,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2014,7 +1924,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F33">
@@ -2024,19 +1934,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="I33">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L33">
@@ -2046,7 +1951,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2066,7 +1971,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F34">
@@ -2076,19 +1981,14 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L34">
@@ -2098,7 +1998,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2118,7 +2018,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CEPOMAC</t>
         </is>
       </c>
       <c r="F35">
@@ -2128,19 +2028,14 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="I35">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L35">
@@ -2150,7 +2045,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2170,7 +2065,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F36">
@@ -2180,19 +2075,14 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I36">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L36">
@@ -2202,7 +2092,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2222,7 +2112,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F37">
@@ -2232,19 +2122,14 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="I37">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L37">
@@ -2254,7 +2139,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2274,7 +2159,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F38">
@@ -2284,19 +2169,14 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L38">
@@ -2306,7 +2186,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2326,7 +2206,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F39">
@@ -2336,19 +2216,14 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I39">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L39">
@@ -2358,7 +2233,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2378,7 +2253,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F40">
@@ -2388,19 +2263,14 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="I40">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L40">
@@ -2410,7 +2280,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2430,7 +2300,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F41">
@@ -2440,19 +2310,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="I41">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L41">
@@ -2462,7 +2327,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2482,7 +2347,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F42">
@@ -2492,19 +2357,14 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="I42">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L42">
@@ -2514,7 +2374,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2534,7 +2394,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F43">
@@ -2544,19 +2404,19 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I43">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L43">
@@ -2566,7 +2426,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2586,7 +2446,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F44">
@@ -2596,19 +2456,14 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="I44">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L44">
@@ -2618,7 +2473,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2638,7 +2493,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F45">
@@ -2648,19 +2503,14 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L45">
@@ -2670,7 +2520,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2690,7 +2540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F46">
@@ -2700,19 +2550,14 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="I46">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L46">
@@ -2722,7 +2567,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2742,7 +2587,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F47">
@@ -2752,19 +2597,14 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="I47">
-        <v>69</v>
+        <v>-1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L47">
@@ -2774,7 +2614,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2794,7 +2634,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F48">
@@ -2804,19 +2644,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I48">
-        <v>48</v>
+        <v>-1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L48">
@@ -2826,7 +2661,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2846,7 +2681,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F49">
@@ -2856,19 +2691,14 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="I49">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L49">
@@ -2878,7 +2708,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2898,7 +2728,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F50">
@@ -2908,19 +2738,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I50">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L50">
@@ -2930,7 +2755,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2950,7 +2775,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F51">
@@ -2960,29 +2785,29 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="I51">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L51">
         <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3002,7 +2827,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F52">
@@ -3012,19 +2837,14 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="I52">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L52">
@@ -3034,7 +2854,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3054,7 +2874,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F53">
@@ -3064,29 +2884,34 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="I53">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L53">
         <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3106,7 +2931,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F54">
@@ -3116,19 +2941,19 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I54">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L54">
@@ -3138,7 +2963,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3158,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F55">
@@ -3168,19 +2993,19 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="I55">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L55">
@@ -3190,7 +3015,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3210,7 +3035,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F56">
@@ -3220,19 +3045,19 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="I56">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L56">
@@ -3242,7 +3067,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3262,7 +3087,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F57">
@@ -3272,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I57">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3284,7 +3109,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L57">
@@ -3294,7 +3119,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3314,7 +3139,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F58">
@@ -3324,19 +3149,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="I58">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L58">
@@ -3346,7 +3171,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3366,7 +3191,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F59">
@@ -3376,19 +3201,19 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="I59">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L59">
@@ -3398,7 +3223,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3418,7 +3243,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F60">
@@ -3428,19 +3253,19 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="I60">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L60">
@@ -3450,7 +3275,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3470,7 +3295,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F61">
@@ -3480,19 +3305,19 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="I61">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L61">
@@ -3502,7 +3327,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3522,7 +3347,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F62">
@@ -3532,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="I62">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3544,7 +3369,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L62">
@@ -3554,7 +3379,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3574,7 +3399,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F63">
@@ -3584,10 +3409,10 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="I63">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3596,7 +3421,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L63">
@@ -3606,7 +3431,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3626,7 +3451,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F64">
@@ -3636,10 +3461,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="I64">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3648,7 +3473,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L64">
@@ -3658,7 +3483,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3678,7 +3503,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F65">
@@ -3688,19 +3513,19 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="I65">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L65">
@@ -3710,7 +3535,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3730,7 +3555,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F66">
@@ -3740,29 +3565,34 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="I66">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L66">
         <v>0</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3782,7 +3612,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F67">
@@ -3792,19 +3622,14 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="I67">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L67">
@@ -3814,7 +3639,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3834,7 +3659,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F68">
@@ -3844,19 +3669,14 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="I68">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L68">
@@ -3866,7 +3686,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3886,7 +3706,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F69">
@@ -3896,19 +3716,14 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="I69">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L69">
@@ -3918,7 +3733,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3938,7 +3753,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F70">
@@ -3948,29 +3763,29 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>222</v>
+        <v>-1</v>
       </c>
       <c r="I70">
-        <v>106</v>
+        <v>-1</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
       <c r="L70">
         <v>0</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>NA w inferred l inferred</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3990,7 +3805,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F71">
@@ -4000,19 +3815,14 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="I71">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L71">
@@ -4022,7 +3832,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4042,7 +3852,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F72">
@@ -4052,19 +3862,14 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="I72">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L72">
@@ -4074,7 +3879,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4094,7 +3899,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F73">
@@ -4104,19 +3909,14 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="I73">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L73">
@@ -4126,7 +3926,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4146,7 +3946,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F74">
@@ -4156,19 +3956,14 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="I74">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L74">
@@ -4178,7 +3973,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4198,7 +3993,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F75">
@@ -4208,19 +4003,14 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="I75">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L75">
@@ -4230,7 +4020,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4250,7 +4040,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F76">
@@ -4260,14 +4050,14 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I76">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L76">
@@ -4277,7 +4067,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4297,7 +4087,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F77">
@@ -4307,14 +4097,14 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I77">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L77">
@@ -4324,7 +4114,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4344,7 +4134,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F78">
@@ -4354,10 +4144,10 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I78">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4371,7 +4161,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4386,7 +4176,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4401,10 +4191,10 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I79">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4418,7 +4208,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4433,7 +4223,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4448,10 +4238,10 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I80">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4465,7 +4255,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4480,12 +4270,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F81">
@@ -4495,14 +4285,14 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="I81">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L81">
@@ -4512,7 +4302,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4527,12 +4317,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F82">
@@ -4542,14 +4332,14 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I82">
-        <v>65</v>
+        <v>-1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L82">
@@ -4559,7 +4349,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4574,12 +4364,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F83">
@@ -4589,14 +4379,14 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="I83">
-        <v>74</v>
+        <v>-1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L83">
@@ -4606,7 +4396,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4621,12 +4411,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F84">
@@ -4636,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="I84">
         <v>-1</v>
@@ -4653,7 +4443,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4668,12 +4458,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F85">
@@ -4683,14 +4473,19 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="I85">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L85">
@@ -4700,7 +4495,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4715,12 +4510,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F86">
@@ -4730,14 +4525,19 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="I86">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L86">
@@ -4747,7 +4547,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4762,12 +4562,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F87">
@@ -4777,14 +4577,19 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="I87">
-        <v>-1</v>
+        <v>93</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L87">
@@ -4794,7 +4599,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4809,12 +4614,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F88">
@@ -4824,14 +4629,19 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="I88">
-        <v>-1</v>
+        <v>103</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L88">
@@ -4841,7 +4651,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4856,12 +4666,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F89">
@@ -4871,14 +4681,14 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I89">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L89">
@@ -4888,7 +4698,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4903,12 +4713,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F90">
@@ -4918,14 +4728,19 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I90">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L90">
@@ -4935,7 +4750,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4950,12 +4765,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F91">
@@ -4965,14 +4780,19 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I91">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L91">
@@ -4982,7 +4802,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4997,12 +4817,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F92">
@@ -5012,14 +4832,14 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I92">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L92">
@@ -5029,7 +4849,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5044,12 +4864,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F93">
@@ -5059,14 +4879,14 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I93">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L93">
@@ -5076,7 +4896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5091,12 +4911,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F94">
@@ -5106,14 +4926,14 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I94">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L94">
@@ -5123,7 +4943,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5138,12 +4958,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F95">
@@ -5153,14 +4973,14 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I95">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L95">
@@ -5170,7 +4990,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5185,12 +5005,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F96">
@@ -5200,14 +5020,14 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I96">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L96">
@@ -5217,7 +5037,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5232,12 +5052,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F97">
@@ -5247,14 +5067,19 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I97">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L97">
@@ -5264,7 +5089,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5279,12 +5104,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F98">
@@ -5294,14 +5119,19 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I98">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L98">
@@ -5311,7 +5141,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5326,12 +5156,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F99">
@@ -5341,14 +5171,19 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I99">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L99">
@@ -5358,7 +5193,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5373,12 +5208,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F100">
@@ -5388,14 +5223,19 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I100">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L100">
@@ -5405,7 +5245,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5420,12 +5260,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F101">
@@ -5435,14 +5275,19 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I101">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L101">
@@ -5452,7 +5297,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5467,12 +5312,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F102">
@@ -5482,14 +5327,19 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="I102">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L102">
@@ -5499,7 +5349,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5514,12 +5364,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F103">
@@ -5529,14 +5379,19 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="I103">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L103">
@@ -5546,7 +5401,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5561,12 +5416,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F104">
@@ -5576,14 +5431,19 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="I104">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L104">
@@ -5593,7 +5453,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5608,12 +5468,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F105">
@@ -5623,14 +5483,19 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="I105">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L105">
@@ -5640,7 +5505,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5655,12 +5520,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F106">
@@ -5670,14 +5535,19 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="I106">
-        <v>-1</v>
+        <v>198</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L106">
@@ -5687,7 +5557,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5702,12 +5572,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F107">
@@ -5717,14 +5587,19 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="I107">
-        <v>-1</v>
+        <v>171</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L107">
@@ -5734,7 +5609,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5749,12 +5624,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F108">
@@ -5764,24 +5639,34 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I108">
-        <v>-1</v>
+        <v>131</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L108">
         <v>0</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>manca 1 chela</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5796,12 +5681,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F109">
@@ -5811,14 +5696,19 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I109">
-        <v>-1</v>
+        <v>124</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L109">
@@ -5828,7 +5718,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5843,12 +5733,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F110">
@@ -5858,24 +5748,34 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="I110">
-        <v>-1</v>
+        <v>116</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L110">
         <v>0</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>manca 1 chela</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5890,12 +5790,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F111">
@@ -5905,24 +5805,34 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="I111">
-        <v>-1</v>
+        <v>139</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L111">
         <v>0</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>mancano</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5937,12 +5847,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F112">
@@ -5952,14 +5862,19 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I112">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L112">
@@ -5969,7 +5884,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5984,12 +5899,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F113">
@@ -5999,14 +5914,14 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="I113">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L113">
@@ -6016,7 +5931,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6036,7 +5951,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F114">
@@ -6046,14 +5961,19 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="I114">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L114">
@@ -6063,7 +5983,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6083,7 +6003,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F115">
@@ -6093,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="I115">
         <v>-1</v>
@@ -6110,7 +6030,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6130,7 +6050,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F116">
@@ -6140,14 +6060,19 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="I116">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L116">
@@ -6157,7 +6082,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6177,7 +6102,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F117">
@@ -6187,14 +6112,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="I117">
-        <v>-1</v>
+        <v>93</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L117">
@@ -6204,7 +6134,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6224,7 +6154,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F118">
@@ -6234,14 +6164,19 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="I118">
-        <v>-1</v>
+        <v>64</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L118">
@@ -6251,7 +6186,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6271,7 +6206,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F119">
@@ -6281,14 +6216,19 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="I119">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L119">
@@ -6298,7 +6238,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6318,7 +6258,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F120">
@@ -6328,14 +6268,19 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="I120">
-        <v>-1</v>
+        <v>94</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L120">
@@ -6345,7 +6290,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6365,7 +6310,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F121">
@@ -6375,14 +6320,19 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="I121">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L121">
@@ -6392,7 +6342,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6412,7 +6362,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F122">
@@ -6422,14 +6372,19 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="I122">
-        <v>-1</v>
+        <v>88</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L122">
@@ -6439,7 +6394,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6459,7 +6414,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F123">
@@ -6469,14 +6424,19 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="I123">
-        <v>-1</v>
+        <v>92</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L123">
@@ -6486,7 +6446,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6506,7 +6466,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F124">
@@ -6516,14 +6476,19 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="I124">
-        <v>-1</v>
+        <v>159</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L124">
@@ -6533,7 +6498,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6553,7 +6518,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F125">
@@ -6563,14 +6528,19 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="I125">
-        <v>-1</v>
+        <v>61</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L125">
@@ -6580,7 +6550,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6600,7 +6570,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F126">
@@ -6610,14 +6580,19 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="I126">
-        <v>-1</v>
+        <v>159</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L126">
@@ -6627,7 +6602,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6647,7 +6622,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F127">
@@ -6657,14 +6632,19 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="I127">
-        <v>-1</v>
+        <v>85</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L127">
@@ -6674,7 +6654,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6694,7 +6674,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F128">
@@ -6704,14 +6684,19 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="I128">
-        <v>-1</v>
+        <v>82</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L128">
@@ -6721,7 +6706,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6741,7 +6726,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F129">
@@ -6751,10 +6736,10 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="I129">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6763,7 +6748,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L129">
@@ -6773,7 +6758,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6793,7 +6778,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F130">
@@ -6803,14 +6788,19 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="I130">
-        <v>-1</v>
+        <v>85</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L130">
@@ -6820,7 +6810,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6840,7 +6830,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F131">
@@ -6850,14 +6840,19 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="I131">
-        <v>-1</v>
+        <v>79</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L131">
@@ -6867,7 +6862,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6887,7 +6882,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F132">
@@ -6897,14 +6892,19 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="I132">
-        <v>-1</v>
+        <v>92</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L132">
@@ -6914,7 +6914,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F133">
@@ -6944,14 +6944,19 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="I133">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L133">
@@ -6961,7 +6966,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6981,7 +6986,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F134">
@@ -6991,14 +6996,19 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="I134">
-        <v>-1</v>
+        <v>161</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L134">
@@ -7008,7 +7018,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7028,7 +7038,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F135">
@@ -7038,10 +7048,10 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="I135">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -7050,7 +7060,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L135">
@@ -7060,7 +7070,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7080,7 +7090,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F136">
@@ -7090,19 +7100,19 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="I136">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L136">
@@ -7112,7 +7122,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7132,7 +7142,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F137">
@@ -7142,10 +7152,10 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="I137">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -7154,7 +7164,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L137">
@@ -7164,7 +7174,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7179,7 +7189,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7194,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I138">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -7216,7 +7226,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7231,7 +7241,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7246,10 +7256,10 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="I139">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -7268,7 +7278,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7283,7 +7293,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7301,7 +7311,7 @@
         <v>225</v>
       </c>
       <c r="I140">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -7320,7 +7330,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7335,7 +7345,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7350,10 +7360,10 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="I141">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -7362,7 +7372,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L141">
@@ -7372,7 +7382,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7387,7 +7397,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7402,10 +7412,10 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="I142">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -7414,7 +7424,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L142">
@@ -7424,7 +7434,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7439,7 +7449,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7454,19 +7464,19 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="I143">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L143">
@@ -7476,7 +7486,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7491,7 +7501,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7506,10 +7516,10 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="I144">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -7528,7 +7538,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7543,7 +7553,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7558,10 +7568,10 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I145">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -7570,7 +7580,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L145">
@@ -7580,7 +7590,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7595,7 +7605,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7610,19 +7620,19 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="I146">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L146">
@@ -7632,7 +7642,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7647,7 +7657,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7662,10 +7672,10 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I147">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -7674,7 +7684,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L147">
@@ -7684,7 +7694,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7699,7 +7709,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7714,19 +7724,19 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I148">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L148">
@@ -7736,7 +7746,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7751,7 +7761,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7766,19 +7776,19 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I149">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L149">
@@ -7788,7 +7798,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7803,7 +7813,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7818,10 +7828,10 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="I150">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -7830,7 +7840,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L150">
@@ -7840,7 +7850,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7855,7 +7865,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7870,19 +7880,19 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I151">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L151">
@@ -7892,7 +7902,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7907,7 +7917,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7922,10 +7932,10 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="I152">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -7934,7 +7944,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L152">
@@ -7944,7 +7954,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7959,7 +7969,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7974,10 +7984,10 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="I153">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -7986,7 +7996,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L153">
@@ -7996,7 +8006,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8011,7 +8021,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8026,10 +8036,10 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I154">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -8038,7 +8048,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L154">
@@ -8048,7 +8058,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8063,7 +8073,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8078,19 +8088,19 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="I155">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L155">
@@ -8100,7 +8110,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8115,7 +8125,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8130,19 +8140,19 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="I156">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L156">
@@ -8152,7 +8162,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8167,7 +8177,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8182,19 +8192,19 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="I157">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L157">
@@ -8204,7 +8214,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8219,7 +8229,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8234,19 +8244,19 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="I158">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L158">
@@ -8256,7 +8266,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8271,7 +8281,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8286,19 +8296,19 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="I159">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L159">
@@ -8308,7 +8318,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8323,7 +8333,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8338,19 +8348,19 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I160">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L160">
@@ -8360,7 +8370,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8375,7 +8385,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8390,19 +8400,19 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I161">
         <v>86</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L161">
@@ -8412,7 +8422,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8427,12 +8437,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F162">
@@ -8442,10 +8452,10 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="I162">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -8454,7 +8464,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L162">
@@ -8464,7 +8474,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8479,12 +8489,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F163">
@@ -8494,14 +8504,19 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="I163">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L163">
@@ -8511,7 +8526,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8531,7 +8546,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F164">
@@ -8541,19 +8556,19 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="I164">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L164">
@@ -8563,7 +8578,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8583,7 +8598,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F165">
@@ -8593,10 +8608,10 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="I165">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -8605,7 +8620,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L165">
@@ -8615,7 +8630,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8635,7 +8650,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F166">
@@ -8645,19 +8660,19 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="I166">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L166">
@@ -8667,7 +8682,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8687,7 +8702,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F167">
@@ -8697,19 +8712,19 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="I167">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L167">
@@ -8719,7 +8734,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8739,7 +8754,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F168">
@@ -8749,19 +8764,19 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="I168">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L168">
@@ -8771,7 +8786,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8791,7 +8806,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F169">
@@ -8801,19 +8816,19 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="I169">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L169">
@@ -8823,7 +8838,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8843,7 +8858,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F170">
@@ -8853,19 +8868,19 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="I170">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L170">
@@ -8875,7 +8890,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8895,7 +8910,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F171">
@@ -8905,19 +8920,19 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="I171">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L171">
@@ -8927,7 +8942,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8947,7 +8962,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F172">
@@ -8957,10 +8972,10 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="I172">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -8969,7 +8984,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L172">
@@ -8979,7 +8994,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8999,7 +9014,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F173">
@@ -9009,19 +9024,19 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="I173">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L173">
@@ -9031,7 +9046,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9051,7 +9066,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F174">
@@ -9061,19 +9076,19 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="I174">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L174">
@@ -9083,7 +9098,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9103,7 +9118,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F175">
@@ -9113,10 +9128,10 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="I175">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -9125,7 +9140,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L175">
@@ -9135,7 +9150,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9155,7 +9170,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F176">
@@ -9165,10 +9180,10 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="I176">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -9177,7 +9192,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L176">
@@ -9187,7 +9202,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9207,7 +9222,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F177">
@@ -9217,10 +9232,10 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="I177">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -9229,7 +9244,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L177">
@@ -9239,7 +9254,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9259,7 +9274,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F178">
@@ -9269,14 +9284,19 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="I178">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L178">
@@ -9286,7 +9306,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9306,7 +9326,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F179">
@@ -9316,10 +9336,10 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="I179">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -9328,7 +9348,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L179">
@@ -9338,7 +9358,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9358,7 +9378,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F180">
@@ -9368,10 +9388,10 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="I180">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -9380,7 +9400,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L180">
@@ -9390,7 +9410,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9410,7 +9430,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F181">
@@ -9420,19 +9440,19 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="I181">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L181">
@@ -9442,7 +9462,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9462,7 +9482,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F182">
@@ -9472,14 +9492,19 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="I182">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L182">
@@ -9489,7 +9514,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9509,7 +9534,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F183">
@@ -9519,19 +9544,19 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="I183">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L183">
@@ -9541,7 +9566,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9561,7 +9586,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F184">
@@ -9571,19 +9596,19 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="I184">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L184">
@@ -9593,7 +9618,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9613,7 +9638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F185">
@@ -9623,19 +9648,19 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="I185">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L185">
@@ -9645,7 +9670,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9665,7 +9690,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F186">
@@ -9675,10 +9700,10 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="I186">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -9687,7 +9712,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L186">
@@ -9697,7 +9722,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9717,7 +9742,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F187">
@@ -9727,14 +9752,19 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I187">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L187">
@@ -9744,7 +9774,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9764,7 +9794,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F188">
@@ -9774,10 +9804,10 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="I188">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -9786,7 +9816,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L188">
@@ -9796,7 +9826,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9816,7 +9846,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F189">
@@ -9826,14 +9856,19 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="I189">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L189">
@@ -9843,7 +9878,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9863,7 +9898,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F190">
@@ -9873,10 +9908,10 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="I190">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -9885,7 +9920,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L190">
@@ -9895,7 +9930,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9915,7 +9950,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F191">
@@ -9925,14 +9960,19 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I191">
-        <v>-1</v>
+        <v>81</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L191">
@@ -9942,7 +9982,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9962,7 +10002,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F192">
@@ -9972,14 +10012,19 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="I192">
-        <v>-1</v>
+        <v>71</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L192">
@@ -9989,7 +10034,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10009,7 +10054,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F193">
@@ -10019,14 +10064,19 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="I193">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L193">
@@ -10036,7 +10086,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10056,7 +10106,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F194">
@@ -10066,14 +10116,19 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="I194">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L194">
@@ -10083,7 +10138,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10103,7 +10158,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F195">
@@ -10113,14 +10168,19 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="I195">
-        <v>-1</v>
+        <v>55</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L195">
@@ -10130,7 +10190,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10150,7 +10210,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F196">
@@ -10160,14 +10220,19 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="I196">
-        <v>-1</v>
+        <v>171</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L196">
@@ -10177,7 +10242,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10197,7 +10262,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F197">
@@ -10207,14 +10272,19 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="I197">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L197">
@@ -10224,7 +10294,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10244,7 +10314,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F198">
@@ -10254,14 +10324,19 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="I198">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L198">
@@ -10271,7 +10346,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10291,7 +10366,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F199">
@@ -10301,14 +10376,19 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="I199">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L199">
@@ -10318,7 +10398,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10338,7 +10418,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F200">
@@ -10348,14 +10428,19 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="I200">
-        <v>-1</v>
+        <v>81</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L200">
@@ -10365,7 +10450,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10385,7 +10470,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F201">
@@ -10395,14 +10480,19 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="I201">
-        <v>-1</v>
+        <v>79</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L201">
@@ -10412,7 +10502,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10432,7 +10522,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F202">
@@ -10442,14 +10532,19 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="I202">
-        <v>-1</v>
+        <v>133</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L202">
@@ -10459,7 +10554,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -10479,7 +10574,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F203">
@@ -10489,14 +10584,19 @@
         <v>1</v>
       </c>
       <c r="H203">
+        <v>232</v>
+      </c>
+      <c r="I203">
         <v>110</v>
       </c>
-      <c r="I203">
-        <v>-1</v>
-      </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L203">
@@ -10506,7 +10606,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -10526,7 +10626,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F204">
@@ -10536,14 +10636,19 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="I204">
-        <v>-1</v>
+        <v>64</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L204">
@@ -10553,7 +10658,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -10573,7 +10678,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F205">
@@ -10583,14 +10688,19 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="I205">
-        <v>-1</v>
+        <v>158</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L205">
@@ -10600,7 +10710,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -10620,7 +10730,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F206">
@@ -10630,14 +10740,19 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="I206">
-        <v>-1</v>
+        <v>85</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L206">
@@ -10647,7 +10762,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10667,7 +10782,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F207">
@@ -10677,14 +10792,19 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="I207">
-        <v>-1</v>
+        <v>88</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L207">
@@ -10694,7 +10814,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10714,7 +10834,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F208">
@@ -10724,14 +10844,19 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="I208">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L208">
@@ -10741,7 +10866,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10761,7 +10886,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F209">
@@ -10771,14 +10896,19 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="I209">
-        <v>-1</v>
+        <v>80</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>HOLRM-4</t>
         </is>
       </c>
       <c r="L209">
@@ -10788,7 +10918,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10808,7 +10938,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F210">
@@ -10818,14 +10948,19 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="I210">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L210">
@@ -10835,7 +10970,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -10855,7 +10990,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F211">
@@ -10865,14 +11000,19 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="I211">
-        <v>-1</v>
+        <v>86</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L211">
@@ -10882,7 +11022,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10902,7 +11042,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F212">
@@ -10912,14 +11052,19 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="I212">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L212">
@@ -10929,7 +11074,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10949,7 +11094,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F213">
@@ -10959,14 +11104,19 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c r="I213">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L213">
@@ -10976,7 +11126,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10996,7 +11146,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F214">
@@ -11006,14 +11156,19 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="I214">
-        <v>-1</v>
+        <v>79</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L214">
@@ -11023,7 +11178,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -11043,7 +11198,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F215">
@@ -11053,14 +11208,19 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="I215">
-        <v>-1</v>
+        <v>84</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L215">
@@ -11070,7 +11230,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -11090,7 +11250,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F216">
@@ -11100,14 +11260,19 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="I216">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L216">
@@ -11117,7 +11282,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -11137,7 +11302,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F217">
@@ -11147,14 +11312,19 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="I217">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L217">
@@ -11164,7 +11334,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -11184,7 +11354,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F218">
@@ -11194,19 +11364,14 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="I218">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L218">
@@ -11216,7 +11381,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11236,7 +11401,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F219">
@@ -11246,19 +11411,14 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I219">
-        <v>63</v>
+        <v>-1</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L219">
@@ -11268,7 +11428,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11288,7 +11448,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F220">
@@ -11298,14 +11458,19 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I220">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L220">
@@ -11315,7 +11480,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11335,7 +11500,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F221">
@@ -11345,19 +11510,19 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I221">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L221">
@@ -11367,7 +11532,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -11387,7 +11552,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GOBISPP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F222">
@@ -11397,29 +11562,29 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="I222">
-        <v>-1</v>
+        <v>278</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L222">
         <v>0</v>
-      </c>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>pomatoschistus sp</t>
-        </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -11434,12 +11599,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F223">
@@ -11449,34 +11614,29 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="I223">
-        <v>267</v>
+        <v>515</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L223">
         <v>0</v>
-      </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>SS7857</t>
-        </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11496,7 +11656,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F224">
@@ -11506,14 +11666,19 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I224">
-        <v>-1</v>
+        <v>56</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L224">
@@ -11523,7 +11688,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -11543,7 +11708,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F225">
@@ -11553,14 +11718,14 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I225">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L225">
@@ -11570,7 +11735,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -11585,12 +11750,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F226">
@@ -11600,24 +11765,34 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="I226">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
       <c r="L226">
         <v>0</v>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>SA012</t>
+        </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -11637,7 +11812,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F227">
@@ -11647,24 +11822,34 @@
         <v>1</v>
       </c>
       <c r="H227">
+        <v>147</v>
+      </c>
+      <c r="I227">
         <v>26</v>
       </c>
-      <c r="I227">
-        <v>-1</v>
-      </c>
       <c r="J227" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
       <c r="L227">
         <v>0</v>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>SS8362</t>
+        </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11679,12 +11864,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F228">
@@ -11694,14 +11879,19 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="I228">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L228">
@@ -11711,7 +11901,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11726,32 +11916,475 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>154</v>
+      </c>
+      <c r="I229">
+        <v>25</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
           <t>2-RAP</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>GOBISUE</t>
+        </is>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>63</v>
+      </c>
+      <c r="I230">
+        <v>-1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>LIOCDEP</t>
         </is>
       </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="G229">
-        <v>1</v>
-      </c>
-      <c r="H229">
-        <v>16</v>
-      </c>
-      <c r="I229">
-        <v>-1</v>
-      </c>
-      <c r="J229" t="inlineStr">
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>17</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>20</v>
+      </c>
+      <c r="I232">
+        <v>4</v>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L229">
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>25</v>
+      </c>
+      <c r="I233">
+        <v>7</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>17</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>17</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>22</v>
+      </c>
+      <c r="I236">
+        <v>4</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>21</v>
+      </c>
+      <c r="I237">
+        <v>4</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>22</v>
+      </c>
+      <c r="I238">
+        <v>6</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L238">
         <v>0</v>
       </c>
     </row>
